--- a/Documentation/PlayerEnemy_HealthAttacks.xlsx
+++ b/Documentation/PlayerEnemy_HealthAttacks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherw\Google Drive\Game Development &amp; Leaning\Unity\2DPlatformer\GitHub\Adventurer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F8735-AAFA-4F65-B5E6-47A8D8F9EAAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915B6A4-7BC0-416D-BBC3-FD3958FF7F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{632904AB-350F-4803-B114-78BBA53659E1}"/>
   </bookViews>
@@ -189,19 +189,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,7 +207,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,126 +540,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="7" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>B5</f>
         <v>40</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <f>B5*2</f>
         <v>80</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <f>B5*3</f>
         <v>120</v>
       </c>
@@ -667,70 +667,70 @@
         <f>B5*4</f>
         <v>160</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f>B5*5</f>
         <v>200</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>55</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>125</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5">
-        <v>45</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="2">
+        <v>85</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <v>155</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="2">
         <v>195</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="U5" s="2">
+        <v>1250</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>50</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C10" si="0">B6</f>
         <v>50</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:D10" si="1">B6*2</f>
         <v>100</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:E10" si="2">B6*3</f>
         <v>150</v>
       </c>
@@ -738,35 +738,35 @@
         <f t="shared" ref="F6:F10" si="3">B6*4</f>
         <v>200</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G10" si="4">B6*5</f>
         <v>250</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>60</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -774,35 +774,35 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>70</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
@@ -810,35 +810,35 @@
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>80</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
@@ -846,35 +846,35 @@
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>90</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
@@ -882,18 +882,18 @@
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Documentation/PlayerEnemy_HealthAttacks.xlsx
+++ b/Documentation/PlayerEnemy_HealthAttacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherw\Google Drive\Game Development &amp; Leaning\Unity\2DPlatformer\GitHub\Adventurer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915B6A4-7BC0-416D-BBC3-FD3958FF7F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A24490-AFF6-47D1-9B82-94C1B435FC2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{632904AB-350F-4803-B114-78BBA53659E1}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{632904AB-350F-4803-B114-78BBA53659E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,16 +530,16 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="U5" s="2">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -715,7 +715,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
